--- a/Project-KTXForecasting/Result/Shared_20240707/Forecasting_경전선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240707/Forecasting_경전선.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240707\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77B51B1-351D-45FE-B2B0-EA4B68BAC40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01762C97-671D-4931-92C6-9CABE5042A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -268,12 +268,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -318,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -335,6 +347,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -347,23 +360,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="2" builtinId="5"/>
@@ -8101,10 +8118,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC3130B-8927-4672-B491-575C7A4CA164}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8121,21 +8138,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -8147,7 +8164,7 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="10"/>
       <c r="E2" t="str">
         <f>Forecasting_전체!C1</f>
         <v>y</v>
@@ -8590,24 +8607,24 @@
         <f>Forecasting_주중!D12</f>
         <v>351935.0625</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="11" t="str">
+      <c r="L13" s="12" t="str">
         <f>E1</f>
         <v>전체</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11" t="str">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12" t="str">
         <f>G1</f>
         <v>주말</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11" t="str">
+      <c r="O13" s="12"/>
+      <c r="P13" s="12" t="str">
         <f>I1</f>
         <v>주중</v>
       </c>
-      <c r="Q13" s="11"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
@@ -8646,7 +8663,7 @@
         <f>Forecasting_주중!D13</f>
         <v>250501.5625</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="11"/>
       <c r="L14" t="str">
         <f>F2</f>
         <v>NHITS</v>
@@ -8801,7 +8818,7 @@
         <v>17708.003472222223</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>30</v>
       </c>
@@ -8867,7 +8884,7 @@
         <v>16202.1904296875</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -8933,7 +8950,7 @@
         <v>13992.037828947368</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>31</v>
       </c>
@@ -8999,7 +9016,7 @@
         <v>13771.652573529413</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>30</v>
       </c>
@@ -9065,7 +9082,7 @@
         <v>15876.516544117647</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>31</v>
       </c>
@@ -9131,7 +9148,7 @@
         <v>12782.630756578947</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -9197,7 +9214,7 @@
         <v>12655.4580078125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -9263,7 +9280,7 @@
         <v>14427.705729166666</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>31</v>
       </c>
@@ -9328,8 +9345,20 @@
         <f t="shared" si="6"/>
         <v>16573.864583333332</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R24" s="8">
+        <f>AVERAGE(M24:M35)</f>
+        <v>22146.393177163336</v>
+      </c>
+      <c r="S24" s="8">
+        <f>AVERAGE(O24:O35)</f>
+        <v>17116.671163623705</v>
+      </c>
+      <c r="T24" s="8">
+        <f>AVERAGE(Q24:Q35)</f>
+        <v>12709.771439079786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>28</v>
       </c>
@@ -9395,7 +9424,7 @@
         <v>11172.974609375</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>31</v>
       </c>
@@ -9461,7 +9490,7 @@
         <v>11133.880514705883</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -9527,7 +9556,7 @@
         <v>13290.946180555555</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>31</v>
       </c>
@@ -9593,7 +9622,7 @@
         <v>12902.604779411764</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -9659,7 +9688,7 @@
         <v>9346.6268382352937</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>31</v>
       </c>
@@ -9725,7 +9754,7 @@
         <v>11945.674342105263</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -9791,7 +9820,7 @@
         <v>12922.5185546875</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -10074,805 +10103,805 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C567823-B67D-4930-B663-CCD6653178CF}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.4140625" customWidth="1"/>
-    <col min="11" max="11" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.4140625" customWidth="1"/>
+    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O3" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D4" s="13">
         <f>Forecasting_전체!C2</f>
         <v>688648</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E4" s="13">
         <f>Forecasting_전체!D2</f>
         <v>673034.4375</v>
       </c>
-      <c r="E3" s="5">
-        <f>D3-C3</f>
+      <c r="F4" s="13">
+        <f>E4-D4</f>
         <v>-15613.5625</v>
       </c>
-      <c r="F3" s="17">
-        <f>E3/C3</f>
+      <c r="G4" s="14">
+        <f>F4/D4</f>
         <v>-2.2672776948455525E-2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H4" s="13">
         <f>Forecasting_주말!C2</f>
         <v>388460</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I4" s="13">
         <f>Forecasting_주말!D2</f>
         <v>382247.9375</v>
       </c>
-      <c r="I3" s="5">
-        <f>H3-G3</f>
+      <c r="J4" s="13">
+        <f>I4-H4</f>
         <v>-6212.0625</v>
       </c>
-      <c r="J3" s="17">
-        <f>I3/G3</f>
+      <c r="K4" s="14">
+        <f>J4/H4</f>
         <v>-1.5991511352520207E-2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L4" s="13">
         <f>Forecasting_주중!C2</f>
         <v>300188</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M4" s="13">
         <f>Forecasting_주중!D2</f>
         <v>252706.1875</v>
       </c>
-      <c r="M3" s="5">
-        <f>L3-K3</f>
+      <c r="N4" s="13">
+        <f>M4-L4</f>
         <v>-47481.8125</v>
       </c>
-      <c r="N3" s="17">
-        <f>M3/K3</f>
+      <c r="O4" s="14">
+        <f>N4/L4</f>
         <v>-0.15817358621930258</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D5" s="13">
         <f>Forecasting_전체!C3</f>
         <v>716221</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E5" s="13">
         <f>Forecasting_전체!D3</f>
         <v>673034.5625</v>
       </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:E15" si="0">D4-C4</f>
+      <c r="F5" s="13">
+        <f t="shared" ref="F5:F15" si="0">E5-D5</f>
         <v>-43186.4375</v>
       </c>
-      <c r="F4" s="17">
-        <f t="shared" ref="F4:F15" si="1">E4/C4</f>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G15" si="1">F5/D5</f>
         <v>-6.0297642068579391E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H5" s="13">
         <f>Forecasting_주말!C3</f>
         <v>336614</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I5" s="13">
         <f>Forecasting_주말!D3</f>
         <v>339251.3125</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I15" si="2">H4-G4</f>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J15" si="2">I5-H5</f>
         <v>2637.3125</v>
       </c>
-      <c r="J4" s="17">
-        <f t="shared" ref="J4:J15" si="3">I4/G4</f>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K15" si="3">J5/H5</f>
         <v>7.8348271313730261E-3</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L5" s="13">
         <f>Forecasting_주중!C3</f>
         <v>379607</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M5" s="13">
         <f>Forecasting_주중!D3</f>
         <v>353094</v>
       </c>
-      <c r="M4" s="5">
-        <f t="shared" ref="M4:M15" si="4">L4-K4</f>
+      <c r="N5" s="13">
+        <f t="shared" ref="N5:N15" si="4">M5-L5</f>
         <v>-26513</v>
       </c>
-      <c r="N4" s="17">
-        <f t="shared" ref="N4:N15" si="5">M4/K4</f>
+      <c r="O5" s="14">
+        <f t="shared" ref="O5:O15" si="5">N5/L5</f>
         <v>-6.9843285292420842E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D6" s="13">
         <f>Forecasting_전체!C4</f>
         <v>668339</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E6" s="13">
         <f>Forecasting_전체!D4</f>
         <v>673038.3125</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>4699.3125</v>
       </c>
-      <c r="F5" s="17">
+      <c r="G6" s="14">
         <f t="shared" si="1"/>
         <v>7.0313306570467977E-3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H6" s="13">
         <f>Forecasting_주말!C4</f>
         <v>345414</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I6" s="13">
         <f>Forecasting_주말!D4</f>
         <v>318974.1875</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J6" s="13">
         <f t="shared" si="2"/>
         <v>-26439.8125</v>
       </c>
-      <c r="J5" s="17">
+      <c r="K6" s="14">
         <f t="shared" si="3"/>
         <v>-7.6545283341150044E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L6" s="13">
         <f>Forecasting_주중!C4</f>
         <v>322925</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M6" s="13">
         <f>Forecasting_주중!D4</f>
         <v>277421.59375</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N6" s="13">
         <f t="shared" si="4"/>
         <v>-45503.40625</v>
       </c>
-      <c r="N5" s="17">
+      <c r="O6" s="14">
         <f t="shared" si="5"/>
         <v>-0.14091013780289541</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D7" s="13">
         <f>Forecasting_전체!C5</f>
         <v>651454</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E7" s="13">
         <f>Forecasting_전체!D5</f>
         <v>673039.1875</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>21585.1875</v>
       </c>
-      <c r="F6" s="17">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
         <v>3.3133862866756514E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H7" s="13">
         <f>Forecasting_주말!C5</f>
         <v>361238</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I7" s="13">
         <f>Forecasting_주말!D5</f>
         <v>314500.25</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J7" s="13">
         <f t="shared" si="2"/>
         <v>-46737.75</v>
       </c>
-      <c r="J6" s="17">
+      <c r="K7" s="14">
         <f t="shared" si="3"/>
         <v>-0.12938215248672622</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L7" s="13">
         <f>Forecasting_주중!C5</f>
         <v>290216</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M7" s="13">
         <f>Forecasting_주중!D5</f>
         <v>292639.4375</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N7" s="13">
         <f t="shared" si="4"/>
         <v>2423.4375</v>
       </c>
-      <c r="N6" s="17">
+      <c r="O7" s="14">
         <f t="shared" si="5"/>
         <v>8.3504613804890153E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D8" s="13">
         <f>Forecasting_전체!C6</f>
         <v>669451</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E8" s="13">
         <f>Forecasting_전체!D6</f>
         <v>673035.25</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>3584.25</v>
       </c>
-      <c r="F7" s="17">
+      <c r="G8" s="14">
         <f t="shared" si="1"/>
         <v>5.3540139606931651E-3</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H8" s="13">
         <f>Forecasting_주말!C6</f>
         <v>316512</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I8" s="13">
         <f>Forecasting_주말!D6</f>
         <v>254466</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J8" s="13">
         <f t="shared" si="2"/>
         <v>-62046</v>
       </c>
-      <c r="J7" s="17">
+      <c r="K8" s="14">
         <f t="shared" si="3"/>
         <v>-0.19603048225659692</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L8" s="13">
         <f>Forecasting_주중!C6</f>
         <v>352939</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M8" s="13">
         <f>Forecasting_주중!D6</f>
         <v>330553.125</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N8" s="13">
         <f t="shared" si="4"/>
         <v>-22385.875</v>
       </c>
-      <c r="N7" s="17">
+      <c r="O8" s="14">
         <f t="shared" si="5"/>
         <v>-6.3427036966727968E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D9" s="13">
         <f>Forecasting_전체!C7</f>
         <v>648086</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E9" s="13">
         <f>Forecasting_전체!D7</f>
         <v>673041.125</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>24955.125</v>
       </c>
-      <c r="F8" s="17">
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
         <v>3.8505885021432339E-2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H9" s="13">
         <f>Forecasting_주말!C7</f>
         <v>345989</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I9" s="13">
         <f>Forecasting_주말!D7</f>
         <v>358780.9375</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J9" s="13">
         <f t="shared" si="2"/>
         <v>12791.9375</v>
       </c>
-      <c r="J8" s="17">
+      <c r="K9" s="14">
         <f t="shared" si="3"/>
         <v>3.6972093043420452E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L9" s="13">
         <f>Forecasting_주중!C7</f>
         <v>302097</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M9" s="13">
         <f>Forecasting_주중!D7</f>
         <v>293094.75</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N9" s="13">
         <f t="shared" si="4"/>
         <v>-9002.25</v>
       </c>
-      <c r="N8" s="17">
+      <c r="O9" s="14">
         <f t="shared" si="5"/>
         <v>-2.9799203567066206E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D10" s="13">
         <f>Forecasting_전체!C8</f>
         <v>716861</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E10" s="13">
         <f>Forecasting_전체!D8</f>
         <v>673040</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>-43821</v>
       </c>
-      <c r="F9" s="17">
+      <c r="G10" s="14">
         <f t="shared" si="1"/>
         <v>-6.1129005483629324E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H10" s="13">
         <f>Forecasting_주말!C8</f>
         <v>361270</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I10" s="13">
         <f>Forecasting_주말!D8</f>
         <v>389902.34375</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J10" s="13">
         <f t="shared" si="2"/>
         <v>28632.34375</v>
       </c>
-      <c r="J9" s="17">
+      <c r="K10" s="14">
         <f t="shared" si="3"/>
         <v>7.9254695241785925E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L10" s="13">
         <f>Forecasting_주중!C8</f>
         <v>355591</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M10" s="13">
         <f>Forecasting_주중!D8</f>
         <v>336115.34375</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N10" s="13">
         <f t="shared" si="4"/>
         <v>-19475.65625</v>
       </c>
-      <c r="N9" s="17">
+      <c r="O10" s="14">
         <f t="shared" si="5"/>
         <v>-5.4769823336361156E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D11" s="13">
         <f>Forecasting_전체!C9</f>
         <v>688137</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E11" s="13">
         <f>Forecasting_전체!D9</f>
         <v>673045.4375</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>-15091.5625</v>
       </c>
-      <c r="F10" s="17">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
         <v>-2.1931043527669634E-2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H11" s="13">
         <f>Forecasting_주말!C9</f>
         <v>351180</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I11" s="13">
         <f>Forecasting_주말!D9</f>
         <v>355369.21875</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J11" s="13">
         <f t="shared" si="2"/>
         <v>4189.21875</v>
       </c>
-      <c r="J10" s="17">
+      <c r="K11" s="14">
         <f t="shared" si="3"/>
         <v>1.1928978728856997E-2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L11" s="13">
         <f>Forecasting_주중!C9</f>
         <v>336957</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M11" s="13">
         <f>Forecasting_주중!D9</f>
         <v>315177.875</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N11" s="13">
         <f t="shared" si="4"/>
         <v>-21779.125</v>
       </c>
-      <c r="N10" s="17">
+      <c r="O11" s="14">
         <f t="shared" si="5"/>
         <v>-6.4634730841027194E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D12" s="13">
         <f>Forecasting_전체!C10</f>
         <v>714043</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E12" s="13">
         <f>Forecasting_전체!D10</f>
         <v>673046.9375</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>-40996.0625</v>
       </c>
-      <c r="F11" s="17">
+      <c r="G12" s="14">
         <f t="shared" si="1"/>
         <v>-5.7413996776104523E-2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H12" s="13">
         <f>Forecasting_주말!C10</f>
         <v>407266</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I12" s="13">
         <f>Forecasting_주말!D10</f>
         <v>389002.4375</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J12" s="13">
         <f t="shared" si="2"/>
         <v>-18263.5625</v>
       </c>
-      <c r="J11" s="17">
+      <c r="K12" s="14">
         <f t="shared" si="3"/>
         <v>-4.4844309370288708E-2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L12" s="13">
         <f>Forecasting_주중!C10</f>
         <v>306777</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M12" s="13">
         <f>Forecasting_주중!D10</f>
         <v>305182.4375</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N12" s="13">
         <f t="shared" si="4"/>
         <v>-1594.5625</v>
       </c>
-      <c r="N11" s="17">
+      <c r="O12" s="14">
         <f t="shared" si="5"/>
         <v>-5.1977902515508009E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D13" s="13">
         <f>Forecasting_전체!C11</f>
         <v>644503</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E13" s="13">
         <f>Forecasting_전체!D11</f>
         <v>673040.875</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>28537.875</v>
       </c>
-      <c r="F12" s="17">
+      <c r="G13" s="14">
         <f t="shared" si="1"/>
         <v>4.4278886211545951E-2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H13" s="13">
         <f>Forecasting_주말!C11</f>
         <v>304207</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I13" s="13">
         <f>Forecasting_주말!D11</f>
         <v>311651.3125</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J13" s="13">
         <f t="shared" si="2"/>
         <v>7444.3125</v>
       </c>
-      <c r="J12" s="17">
+      <c r="K13" s="14">
         <f t="shared" si="3"/>
         <v>2.4471207105687905E-2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L13" s="13">
         <f>Forecasting_주중!C11</f>
         <v>340296</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M13" s="13">
         <f>Forecasting_주중!D11</f>
         <v>317183.875</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N13" s="13">
         <f t="shared" si="4"/>
         <v>-23112.125</v>
       </c>
-      <c r="N12" s="17">
+      <c r="O13" s="14">
         <f t="shared" si="5"/>
         <v>-6.791770987610786E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D14" s="13">
         <f>Forecasting_전체!C12</f>
         <v>679183</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E14" s="13">
         <f>Forecasting_전체!D12</f>
         <v>673036.75</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>-6146.25</v>
       </c>
-      <c r="F13" s="17">
+      <c r="G14" s="14">
         <f t="shared" si="1"/>
         <v>-9.0494756199728209E-3</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H14" s="13">
         <f>Forecasting_주말!C12</f>
         <v>316724</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I14" s="13">
         <f>Forecasting_주말!D12</f>
         <v>306422.46875</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J14" s="13">
         <f t="shared" si="2"/>
         <v>-10301.53125</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K14" s="14">
         <f t="shared" si="3"/>
         <v>-3.2525262531415362E-2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L14" s="13">
         <f>Forecasting_주중!C12</f>
         <v>362459</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M14" s="13">
         <f>Forecasting_주중!D12</f>
         <v>351935.0625</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N14" s="13">
         <f t="shared" si="4"/>
         <v>-10523.9375</v>
       </c>
-      <c r="N13" s="17">
+      <c r="O14" s="14">
         <f t="shared" si="5"/>
         <v>-2.9034835664171671E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D15" s="13">
         <f>Forecasting_전체!C13</f>
         <v>701690</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E15" s="13">
         <f>Forecasting_전체!D13</f>
         <v>673046.125</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
         <v>-28643.875</v>
       </c>
-      <c r="F14" s="17">
+      <c r="G15" s="14">
         <f t="shared" si="1"/>
         <v>-4.0821267226268013E-2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H15" s="13">
         <f>Forecasting_주말!C13</f>
         <v>412828</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I15" s="13">
         <f>Forecasting_주말!D13</f>
         <v>377245.03125</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J15" s="13">
         <f t="shared" si="2"/>
         <v>-35582.96875</v>
       </c>
-      <c r="J14" s="17">
+      <c r="K15" s="14">
         <f t="shared" si="3"/>
         <v>-8.6193205766081762E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L15" s="13">
         <f>Forecasting_주중!C13</f>
         <v>288862</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M15" s="13">
         <f>Forecasting_주중!D13</f>
         <v>250501.5625</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N15" s="13">
         <f t="shared" si="4"/>
         <v>-38360.4375</v>
       </c>
-      <c r="N14" s="17">
+      <c r="O15" s="14">
         <f t="shared" si="5"/>
         <v>-0.13279849028255708</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="18">
-        <f>AVERAGE(C3:C14)</f>
+      <c r="C16" s="20"/>
+      <c r="D16" s="15">
+        <f t="shared" ref="D16:O16" si="6">AVERAGE(D4:D15)</f>
         <v>682218</v>
       </c>
-      <c r="D15" s="18">
-        <f>AVERAGE(D3:D14)</f>
+      <c r="E16" s="15">
+        <f t="shared" si="6"/>
         <v>673039.91666666663</v>
       </c>
-      <c r="E15" s="18">
-        <f>AVERAGE(E3:E14)</f>
+      <c r="F16" s="15">
+        <f t="shared" si="6"/>
         <v>-9178.0833333333339</v>
       </c>
-      <c r="F15" s="17">
-        <f>AVERAGE(F3:F14)</f>
+      <c r="G16" s="14">
+        <f t="shared" si="6"/>
         <v>-1.2084269077767039E-2</v>
       </c>
-      <c r="G15" s="18">
-        <f>AVERAGE(G3:G14)</f>
+      <c r="H16" s="15">
+        <f t="shared" si="6"/>
         <v>353975.16666666669</v>
       </c>
-      <c r="H15" s="18">
-        <f>AVERAGE(H3:H14)</f>
+      <c r="I16" s="15">
+        <f t="shared" si="6"/>
         <v>341484.453125</v>
       </c>
-      <c r="I15" s="18">
-        <f>AVERAGE(I3:I14)</f>
+      <c r="J16" s="15">
+        <f t="shared" si="6"/>
         <v>-12490.713541666666</v>
       </c>
-      <c r="J15" s="17">
-        <f>AVERAGE(J3:J14)</f>
+      <c r="K16" s="14">
+        <f t="shared" si="6"/>
         <v>-3.5087533821137905E-2</v>
       </c>
-      <c r="K15" s="18">
-        <f>AVERAGE(K3:K14)</f>
+      <c r="L16" s="15">
+        <f t="shared" si="6"/>
         <v>328242.83333333331</v>
       </c>
-      <c r="L15" s="18">
-        <f>AVERAGE(L3:L14)</f>
+      <c r="M16" s="15">
+        <f t="shared" si="6"/>
         <v>306300.4375</v>
       </c>
-      <c r="M15" s="18">
-        <f>AVERAGE(M3:M14)</f>
+      <c r="N16" s="15">
+        <f t="shared" si="6"/>
         <v>-21942.395833333332</v>
       </c>
-      <c r="N15" s="17">
-        <f>AVERAGE(N3:N14)</f>
+      <c r="O16" s="14">
+        <f t="shared" si="6"/>
         <v>-6.7346347393308317E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
